--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final).xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\docs\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5098E51B-868C-4C19-BDAD-408F151AD0C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3DC60-41D9-4B30-A67E-E0934491C323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7044" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1050">
   <si>
     <r>
       <rPr>
@@ -4096,6 +4096,12 @@
   <si>
     <t>Can it be every hour, else OK.
 As per email dated 07May - No changes are required</t>
+  </si>
+  <si>
+    <t>“Dear [Individual full name], Thank you for updating your details with Digital Identity platform. Your registration id is [Registration ID]."</t>
+  </si>
+  <si>
+    <t>“Dear user, Thank you for placing a request for your lost UIN. Your registration id for this request is [Registration ID]."</t>
   </si>
 </sst>
 </file>
@@ -7704,22 +7710,22 @@
       <selection pane="bottomRight" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" style="131" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="131" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="3" customWidth="1"/>
     <col min="7" max="7" width="24" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" style="3" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" style="3" customWidth="1"/>
-    <col min="11" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="3" customWidth="1"/>
+    <col min="11" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
@@ -7733,7 +7739,7 @@
       <c r="I1" s="202"/>
       <c r="J1" s="203"/>
     </row>
-    <row r="2" spans="1:28" ht="39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -7765,7 +7771,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <v>1</v>
       </c>
@@ -7803,7 +7809,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
@@ -7848,7 +7854,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7893,7 +7899,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="7" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7938,7 +7944,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7983,7 +7989,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8028,7 +8034,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8073,7 +8079,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8118,7 +8124,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8163,7 +8169,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8208,7 +8214,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8253,7 +8259,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8315,24 +8321,24 @@
       <selection pane="bottomLeft" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="152" customWidth="1"/>
-    <col min="2" max="2" width="53.1796875" style="149" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="149" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" style="149" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="152" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" style="149" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="149" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="149" customWidth="1"/>
     <col min="5" max="5" width="16" style="149" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" style="153" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" style="153" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.453125" style="153" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="35.453125" style="153" customWidth="1"/>
-    <col min="10" max="10" width="22.81640625" style="161" customWidth="1"/>
-    <col min="11" max="11" width="25.453125" style="161" customWidth="1"/>
-    <col min="12" max="1025" width="9.453125" style="149" customWidth="1"/>
-    <col min="1026" max="16384" width="8.81640625" style="150"/>
+    <col min="6" max="6" width="20.44140625" style="153" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" style="153" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.44140625" style="153" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="35.44140625" style="153" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="161" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" style="161" customWidth="1"/>
+    <col min="12" max="1025" width="9.44140625" style="149" customWidth="1"/>
+    <col min="1026" max="16384" width="8.77734375" style="150"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="204" t="s">
         <v>1017</v>
       </c>
@@ -8347,7 +8353,7 @@
       <c r="J1" s="205"/>
       <c r="K1" s="206"/>
     </row>
-    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="140" t="s">
         <v>1</v>
       </c>
@@ -8382,7 +8388,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="151" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="151" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="144">
         <v>1</v>
       </c>
@@ -8415,7 +8421,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="151" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="151" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="144">
         <v>2</v>
       </c>
@@ -8446,7 +8452,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="151" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="151" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="144">
         <v>3</v>
       </c>
@@ -8479,7 +8485,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="151" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="151" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="144">
         <v>4</v>
       </c>
@@ -8512,7 +8518,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="144">
         <v>5</v>
       </c>
@@ -8545,7 +8551,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="144">
         <v>6</v>
       </c>
@@ -8578,7 +8584,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="130" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="144">
         <v>7</v>
       </c>
@@ -8611,7 +8617,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="65" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="144">
         <v>8</v>
       </c>
@@ -8644,7 +8650,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="144">
         <v>9</v>
       </c>
@@ -8677,7 +8683,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="117" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A12" s="144">
         <v>10</v>
       </c>
@@ -8710,7 +8716,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="144">
         <v>11</v>
       </c>
@@ -8743,7 +8749,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="144">
         <v>12</v>
       </c>
@@ -8774,7 +8780,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="144">
         <v>13</v>
       </c>
@@ -8799,7 +8805,7 @@
       <c r="J15" s="160"/>
       <c r="K15" s="160"/>
     </row>
-    <row r="16" spans="1:11" ht="104" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A16" s="144">
         <v>14</v>
       </c>
@@ -8822,7 +8828,7 @@
       <c r="J16" s="160"/>
       <c r="K16" s="160"/>
     </row>
-    <row r="17" spans="1:11" ht="91" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A17" s="144">
         <v>15</v>
       </c>
@@ -8843,7 +8849,7 @@
       <c r="J17" s="160"/>
       <c r="K17" s="160"/>
     </row>
-    <row r="18" spans="1:11" ht="52" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="144">
         <v>16</v>
       </c>
@@ -8864,7 +8870,7 @@
       <c r="J18" s="160"/>
       <c r="K18" s="160"/>
     </row>
-    <row r="19" spans="1:11" ht="52" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="144">
         <v>17</v>
       </c>
@@ -8885,7 +8891,7 @@
       <c r="J19" s="160"/>
       <c r="K19" s="160"/>
     </row>
-    <row r="20" spans="1:11" ht="52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A20" s="144">
         <v>18</v>
       </c>
@@ -8906,7 +8912,7 @@
       <c r="J20" s="160"/>
       <c r="K20" s="160"/>
     </row>
-    <row r="21" spans="1:11" ht="52" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A21" s="144">
         <v>19</v>
       </c>
@@ -8927,7 +8933,7 @@
       <c r="J21" s="160"/>
       <c r="K21" s="160"/>
     </row>
-    <row r="22" spans="1:11" ht="52" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A22" s="144">
         <v>20</v>
       </c>
@@ -8948,7 +8954,7 @@
       <c r="J22" s="160"/>
       <c r="K22" s="160"/>
     </row>
-    <row r="23" spans="1:11" ht="52" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A23" s="144">
         <v>21</v>
       </c>
@@ -8969,7 +8975,7 @@
       <c r="J23" s="160"/>
       <c r="K23" s="160"/>
     </row>
-    <row r="24" spans="1:11" ht="52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="144">
         <v>22</v>
       </c>
@@ -8990,7 +8996,7 @@
       <c r="J24" s="160"/>
       <c r="K24" s="160"/>
     </row>
-    <row r="25" spans="1:11" ht="52" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A25" s="144">
         <v>23</v>
       </c>
@@ -9015,7 +9021,7 @@
       <c r="J25" s="160"/>
       <c r="K25" s="160"/>
     </row>
-    <row r="26" spans="1:11" ht="65" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A26" s="144">
         <v>24</v>
       </c>
@@ -9036,7 +9042,7 @@
       <c r="J26" s="160"/>
       <c r="K26" s="160"/>
     </row>
-    <row r="27" spans="1:11" ht="65" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A27" s="144">
         <v>25</v>
       </c>
@@ -9057,7 +9063,7 @@
       <c r="J27" s="160"/>
       <c r="K27" s="160"/>
     </row>
-    <row r="28" spans="1:11" ht="65" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A28" s="144">
         <v>26</v>
       </c>
@@ -9080,7 +9086,7 @@
       <c r="J28" s="160"/>
       <c r="K28" s="160"/>
     </row>
-    <row r="29" spans="1:11" ht="65" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A29" s="144">
         <v>27</v>
       </c>
@@ -9119,27 +9125,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMM76"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="21" style="14" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="46.453125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" style="11" customWidth="1"/>
     <col min="9" max="10" width="22" style="131" customWidth="1"/>
-    <col min="11" max="11" width="32.453125" style="131" customWidth="1"/>
-    <col min="12" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="32.44140625" style="131" customWidth="1"/>
+    <col min="12" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="207" t="s">
         <v>50</v>
       </c>
@@ -9154,7 +9160,7 @@
       <c r="J1" s="208"/>
       <c r="K1" s="209"/>
     </row>
-    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -9189,7 +9195,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="143" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -9222,7 +9228,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="208" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A60" si="0">A3+1</f>
         <v>2</v>
@@ -9256,7 +9262,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="221" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -9282,7 +9288,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
     </row>
-    <row r="6" spans="1:11" ht="91" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9312,7 +9318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="117" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9348,7 +9354,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="117" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9382,7 +9388,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="104" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9418,7 +9424,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="117" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9452,7 +9458,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="91" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9488,7 +9494,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="104" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9522,7 +9528,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9556,7 +9562,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="221" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="237.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9590,7 +9596,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="65" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9620,7 +9626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="65" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9650,7 +9656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="91" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9682,7 +9688,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="91" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9714,7 +9720,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9738,7 +9744,7 @@
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
     </row>
-    <row r="20" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9762,7 +9768,7 @@
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
     </row>
-    <row r="21" spans="1:11" ht="65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9773,7 +9779,9 @@
       <c r="C21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="198"/>
+      <c r="D21" s="16" t="s">
+        <v>1048</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
         <v>11</v>
@@ -9792,7 +9800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9803,7 +9811,9 @@
       <c r="C22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="198"/>
+      <c r="D22" s="16" t="s">
+        <v>1048</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
         <v>11</v>
@@ -9822,7 +9832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9846,7 +9856,7 @@
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9870,7 +9880,7 @@
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
     </row>
-    <row r="25" spans="1:11" ht="234" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9902,7 +9912,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="117" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9930,7 +9940,7 @@
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
     </row>
-    <row r="27" spans="1:11" ht="65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9964,7 +9974,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9998,7 +10008,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="104" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -10030,7 +10040,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="195" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -10064,7 +10074,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="117" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -10098,7 +10108,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -10132,7 +10142,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="33" spans="1:1027" ht="104" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1027" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -10166,7 +10176,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="34" spans="1:1027" ht="117" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1027" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -10200,7 +10210,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="35" spans="1:1027" ht="156" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1027" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -10234,7 +10244,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="36" spans="1:1027" ht="156" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1027" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -10268,7 +10278,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="37" spans="1:1027" ht="52" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1027" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -10292,7 +10302,7 @@
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
     </row>
-    <row r="38" spans="1:1027" ht="65" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1027" ht="66" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -10324,7 +10334,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="39" spans="1:1027" ht="117" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1027" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -10356,7 +10366,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="40" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1027" ht="132" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -10390,7 +10400,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="41" spans="1:1027" ht="169" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1027" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -10424,7 +10434,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="42" spans="1:1027" ht="65" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1027" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -11474,7 +11484,7 @@
       <c r="AML42" s="11"/>
       <c r="AMM42" s="11"/>
     </row>
-    <row r="43" spans="1:1027" ht="104" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1027" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -12522,7 +12532,7 @@
       <c r="AML43" s="11"/>
       <c r="AMM43" s="11"/>
     </row>
-    <row r="44" spans="1:1027" ht="65" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1027" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -12552,7 +12562,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="45" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1027" x14ac:dyDescent="0.3">
       <c r="A45" s="45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -12582,7 +12592,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="46" spans="1:1027" ht="130" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1027" ht="132" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -12612,7 +12622,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="47" spans="1:1027" ht="143" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -12642,7 +12652,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="48" spans="1:1027" ht="65" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1027" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -12674,7 +12684,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="65" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -12706,7 +12716,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="65" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -12738,7 +12748,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="117" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -12770,7 +12780,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="91" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -12800,7 +12810,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="104" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -12830,7 +12840,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="104" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -12860,7 +12870,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="104" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -12890,7 +12900,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="91" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -12918,7 +12928,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="52" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -12944,7 +12954,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="348" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -12974,7 +12984,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="130" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -13006,7 +13016,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="143" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -13038,7 +13048,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -13069,7 +13079,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="39" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -13100,7 +13110,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -13131,7 +13141,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -13162,7 +13172,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -13193,7 +13203,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -13224,7 +13234,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -13255,7 +13265,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="78" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -13284,7 +13294,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -13311,7 +13321,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -13338,7 +13348,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -13365,7 +13375,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -13392,7 +13402,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -13419,7 +13429,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="39" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -13448,7 +13458,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="65" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -13458,7 +13468,9 @@
       <c r="C75" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="198"/>
+      <c r="D75" s="16" t="s">
+        <v>1049</v>
+      </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="5"/>
@@ -13473,7 +13485,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="65" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <f t="shared" ref="A76" si="1">A75+1</f>
         <v>74</v>
@@ -13484,7 +13496,9 @@
       <c r="C76" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="198"/>
+      <c r="D76" s="16" t="s">
+        <v>1049</v>
+      </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="5"/>
@@ -13516,31 +13530,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMP141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.453125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.44140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" style="14" customWidth="1"/>
     <col min="9" max="9" width="22" style="14" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="39.1796875" style="97" customWidth="1"/>
-    <col min="12" max="12" width="62.453125" style="14" customWidth="1"/>
-    <col min="13" max="1030" width="9.453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="97" customWidth="1"/>
+    <col min="12" max="12" width="62.44140625" style="14" customWidth="1"/>
+    <col min="13" max="1030" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17 1030:1030" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17 1030:1030" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="201" t="s">
         <v>970</v>
       </c>
@@ -13557,7 +13571,7 @@
       <c r="L1" s="3"/>
       <c r="AMP1"/>
     </row>
-    <row r="2" spans="1:17 1030:1030" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17 1030:1030" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -13594,7 +13608,7 @@
       <c r="L2" s="3"/>
       <c r="AMP2"/>
     </row>
-    <row r="3" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -13632,7 +13646,7 @@
       <c r="Q3"/>
       <c r="AMP3"/>
     </row>
-    <row r="4" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -13670,7 +13684,7 @@
       <c r="Q4"/>
       <c r="AMP4"/>
     </row>
-    <row r="5" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -13708,7 +13722,7 @@
       <c r="Q5"/>
       <c r="AMP5"/>
     </row>
-    <row r="6" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -13746,7 +13760,7 @@
       <c r="Q6"/>
       <c r="AMP6"/>
     </row>
-    <row r="7" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -13784,7 +13798,7 @@
       <c r="Q7"/>
       <c r="AMP7"/>
     </row>
-    <row r="8" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -13822,7 +13836,7 @@
       <c r="Q8"/>
       <c r="AMP8"/>
     </row>
-    <row r="9" spans="1:17 1030:1030" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17 1030:1030" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -13860,7 +13874,7 @@
       <c r="Q9"/>
       <c r="AMP9"/>
     </row>
-    <row r="10" spans="1:17 1030:1030" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17 1030:1030" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -13902,7 +13916,7 @@
       <c r="Q10"/>
       <c r="AMP10"/>
     </row>
-    <row r="11" spans="1:17 1030:1030" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17 1030:1030" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -13944,7 +13958,7 @@
       <c r="Q11"/>
       <c r="AMP11"/>
     </row>
-    <row r="12" spans="1:17 1030:1030" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17 1030:1030" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -13986,7 +14000,7 @@
       <c r="Q12"/>
       <c r="AMP12"/>
     </row>
-    <row r="13" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -14022,7 +14036,7 @@
       <c r="Q13"/>
       <c r="AMP13"/>
     </row>
-    <row r="14" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -14058,7 +14072,7 @@
       <c r="Q14"/>
       <c r="AMP14"/>
     </row>
-    <row r="15" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -14094,7 +14108,7 @@
       <c r="Q15"/>
       <c r="AMP15"/>
     </row>
-    <row r="16" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -14130,7 +14144,7 @@
       <c r="Q16"/>
       <c r="AMP16"/>
     </row>
-    <row r="17" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -14166,7 +14180,7 @@
       <c r="Q17"/>
       <c r="AMP17"/>
     </row>
-    <row r="18" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -14200,7 +14214,7 @@
       <c r="Q18"/>
       <c r="AMP18"/>
     </row>
-    <row r="19" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -14234,7 +14248,7 @@
       <c r="Q19"/>
       <c r="AMP19"/>
     </row>
-    <row r="20" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -14270,7 +14284,7 @@
       <c r="Q20"/>
       <c r="AMP20"/>
     </row>
-    <row r="21" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -14312,7 +14326,7 @@
       <c r="Q21"/>
       <c r="AMP21"/>
     </row>
-    <row r="22" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -14348,7 +14362,7 @@
       <c r="Q22"/>
       <c r="AMP22"/>
     </row>
-    <row r="23" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -14384,7 +14398,7 @@
       <c r="Q23"/>
       <c r="AMP23"/>
     </row>
-    <row r="24" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -14420,7 +14434,7 @@
       <c r="Q24"/>
       <c r="AMP24"/>
     </row>
-    <row r="25" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -14456,7 +14470,7 @@
       <c r="Q25"/>
       <c r="AMP25"/>
     </row>
-    <row r="26" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -14492,7 +14506,7 @@
       <c r="Q26"/>
       <c r="AMP26"/>
     </row>
-    <row r="27" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -14528,7 +14542,7 @@
       <c r="Q27"/>
       <c r="AMP27"/>
     </row>
-    <row r="28" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -14564,7 +14578,7 @@
       <c r="Q28"/>
       <c r="AMP28"/>
     </row>
-    <row r="29" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -14600,7 +14614,7 @@
       <c r="Q29"/>
       <c r="AMP29"/>
     </row>
-    <row r="30" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -14636,7 +14650,7 @@
       <c r="Q30"/>
       <c r="AMP30"/>
     </row>
-    <row r="31" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -14672,7 +14686,7 @@
       <c r="Q31"/>
       <c r="AMP31"/>
     </row>
-    <row r="32" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -14708,7 +14722,7 @@
       <c r="Q32"/>
       <c r="AMP32"/>
     </row>
-    <row r="33" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -14744,7 +14758,7 @@
       <c r="Q33"/>
       <c r="AMP33"/>
     </row>
-    <row r="34" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -14780,7 +14794,7 @@
       <c r="Q34"/>
       <c r="AMP34"/>
     </row>
-    <row r="35" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -14816,7 +14830,7 @@
       <c r="Q35"/>
       <c r="AMP35"/>
     </row>
-    <row r="36" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -14852,7 +14866,7 @@
       <c r="Q36"/>
       <c r="AMP36"/>
     </row>
-    <row r="37" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -14888,7 +14902,7 @@
       <c r="Q37"/>
       <c r="AMP37"/>
     </row>
-    <row r="38" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -14924,7 +14938,7 @@
       <c r="Q38"/>
       <c r="AMP38"/>
     </row>
-    <row r="39" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -14960,7 +14974,7 @@
       <c r="Q39"/>
       <c r="AMP39"/>
     </row>
-    <row r="40" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -14996,7 +15010,7 @@
       <c r="Q40"/>
       <c r="AMP40"/>
     </row>
-    <row r="41" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -15032,7 +15046,7 @@
       <c r="Q41"/>
       <c r="AMP41"/>
     </row>
-    <row r="42" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -15068,7 +15082,7 @@
       <c r="Q42"/>
       <c r="AMP42"/>
     </row>
-    <row r="43" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -15104,7 +15118,7 @@
       <c r="Q43"/>
       <c r="AMP43"/>
     </row>
-    <row r="44" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -15140,7 +15154,7 @@
       <c r="Q44"/>
       <c r="AMP44"/>
     </row>
-    <row r="45" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -15176,7 +15190,7 @@
       <c r="Q45"/>
       <c r="AMP45"/>
     </row>
-    <row r="46" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -15212,7 +15226,7 @@
       <c r="Q46"/>
       <c r="AMP46"/>
     </row>
-    <row r="47" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -15248,7 +15262,7 @@
       <c r="Q47"/>
       <c r="AMP47"/>
     </row>
-    <row r="48" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>46</v>
       </c>
@@ -15284,7 +15298,7 @@
       <c r="Q48"/>
       <c r="AMP48"/>
     </row>
-    <row r="49" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>47</v>
       </c>
@@ -15320,7 +15334,7 @@
       <c r="Q49"/>
       <c r="AMP49"/>
     </row>
-    <row r="50" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>48</v>
       </c>
@@ -15356,7 +15370,7 @@
       <c r="Q50"/>
       <c r="AMP50"/>
     </row>
-    <row r="51" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>49</v>
       </c>
@@ -15392,7 +15406,7 @@
       <c r="Q51"/>
       <c r="AMP51"/>
     </row>
-    <row r="52" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>50</v>
       </c>
@@ -15428,7 +15442,7 @@
       <c r="Q52"/>
       <c r="AMP52"/>
     </row>
-    <row r="53" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>51</v>
       </c>
@@ -15464,7 +15478,7 @@
       <c r="Q53"/>
       <c r="AMP53"/>
     </row>
-    <row r="54" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>52</v>
       </c>
@@ -15500,7 +15514,7 @@
       <c r="Q54"/>
       <c r="AMP54"/>
     </row>
-    <row r="55" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>53</v>
       </c>
@@ -15536,7 +15550,7 @@
       <c r="Q55"/>
       <c r="AMP55"/>
     </row>
-    <row r="56" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>54</v>
       </c>
@@ -15572,7 +15586,7 @@
       <c r="Q56"/>
       <c r="AMP56"/>
     </row>
-    <row r="57" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
         <v>55</v>
       </c>
@@ -15608,7 +15622,7 @@
       <c r="Q57"/>
       <c r="AMP57"/>
     </row>
-    <row r="58" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>56</v>
       </c>
@@ -15644,7 +15658,7 @@
       <c r="Q58"/>
       <c r="AMP58"/>
     </row>
-    <row r="59" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>57</v>
       </c>
@@ -15680,7 +15694,7 @@
       <c r="Q59"/>
       <c r="AMP59"/>
     </row>
-    <row r="60" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>58</v>
       </c>
@@ -15716,7 +15730,7 @@
       <c r="Q60"/>
       <c r="AMP60"/>
     </row>
-    <row r="61" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>59</v>
       </c>
@@ -15752,7 +15766,7 @@
       <c r="Q61"/>
       <c r="AMP61"/>
     </row>
-    <row r="62" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>60</v>
       </c>
@@ -15788,7 +15802,7 @@
       <c r="Q62"/>
       <c r="AMP62"/>
     </row>
-    <row r="63" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>61</v>
       </c>
@@ -15824,7 +15838,7 @@
       <c r="Q63"/>
       <c r="AMP63"/>
     </row>
-    <row r="64" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>62</v>
       </c>
@@ -15860,7 +15874,7 @@
       <c r="Q64"/>
       <c r="AMP64"/>
     </row>
-    <row r="65" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>63</v>
       </c>
@@ -15896,7 +15910,7 @@
       <c r="Q65"/>
       <c r="AMP65"/>
     </row>
-    <row r="66" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>64</v>
       </c>
@@ -15932,7 +15946,7 @@
       <c r="Q66"/>
       <c r="AMP66"/>
     </row>
-    <row r="67" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>65</v>
       </c>
@@ -15968,7 +15982,7 @@
       <c r="Q67"/>
       <c r="AMP67"/>
     </row>
-    <row r="68" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>66</v>
       </c>
@@ -16004,7 +16018,7 @@
       <c r="Q68"/>
       <c r="AMP68"/>
     </row>
-    <row r="69" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>67</v>
       </c>
@@ -16040,7 +16054,7 @@
       <c r="Q69"/>
       <c r="AMP69"/>
     </row>
-    <row r="70" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>68</v>
       </c>
@@ -16076,7 +16090,7 @@
       <c r="Q70"/>
       <c r="AMP70"/>
     </row>
-    <row r="71" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>69</v>
       </c>
@@ -16112,7 +16126,7 @@
       <c r="Q71"/>
       <c r="AMP71"/>
     </row>
-    <row r="72" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>70</v>
       </c>
@@ -16148,7 +16162,7 @@
       <c r="Q72"/>
       <c r="AMP72"/>
     </row>
-    <row r="73" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <v>71</v>
       </c>
@@ -16184,7 +16198,7 @@
       <c r="Q73"/>
       <c r="AMP73"/>
     </row>
-    <row r="74" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>72</v>
       </c>
@@ -16218,7 +16232,7 @@
       <c r="Q74"/>
       <c r="AMP74"/>
     </row>
-    <row r="75" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>73</v>
       </c>
@@ -16252,7 +16266,7 @@
       <c r="Q75"/>
       <c r="AMP75"/>
     </row>
-    <row r="76" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>74</v>
       </c>
@@ -16286,7 +16300,7 @@
       <c r="Q76"/>
       <c r="AMP76"/>
     </row>
-    <row r="77" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>75</v>
       </c>
@@ -16320,7 +16334,7 @@
       <c r="Q77"/>
       <c r="AMP77"/>
     </row>
-    <row r="78" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>76</v>
       </c>
@@ -16354,7 +16368,7 @@
       <c r="Q78"/>
       <c r="AMP78"/>
     </row>
-    <row r="79" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>77</v>
       </c>
@@ -16388,7 +16402,7 @@
       <c r="Q79"/>
       <c r="AMP79"/>
     </row>
-    <row r="80" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>78</v>
       </c>
@@ -16422,7 +16436,7 @@
       <c r="Q80"/>
       <c r="AMP80"/>
     </row>
-    <row r="81" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>79</v>
       </c>
@@ -16464,7 +16478,7 @@
       <c r="Q81"/>
       <c r="AMP81"/>
     </row>
-    <row r="82" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>80</v>
       </c>
@@ -16500,7 +16514,7 @@
       <c r="Q82"/>
       <c r="AMP82"/>
     </row>
-    <row r="83" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>81</v>
       </c>
@@ -16536,7 +16550,7 @@
       <c r="Q83"/>
       <c r="AMP83"/>
     </row>
-    <row r="84" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>82</v>
       </c>
@@ -16570,7 +16584,7 @@
       <c r="Q84"/>
       <c r="AMP84"/>
     </row>
-    <row r="85" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>83</v>
       </c>
@@ -16606,7 +16620,7 @@
       <c r="Q85"/>
       <c r="AMP85"/>
     </row>
-    <row r="86" spans="1:17 1030:1030" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17 1030:1030" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>84</v>
       </c>
@@ -16648,7 +16662,7 @@
       <c r="Q86"/>
       <c r="AMP86"/>
     </row>
-    <row r="87" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>85</v>
       </c>
@@ -16682,7 +16696,7 @@
       <c r="Q87"/>
       <c r="AMP87"/>
     </row>
-    <row r="88" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>86</v>
       </c>
@@ -16718,7 +16732,7 @@
       <c r="Q88"/>
       <c r="AMP88"/>
     </row>
-    <row r="89" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="18">
         <v>87</v>
       </c>
@@ -16752,7 +16766,7 @@
       <c r="Q89"/>
       <c r="AMP89"/>
     </row>
-    <row r="90" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="18">
         <v>88</v>
       </c>
@@ -16786,7 +16800,7 @@
       <c r="Q90"/>
       <c r="AMP90"/>
     </row>
-    <row r="91" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="18">
         <v>89</v>
       </c>
@@ -16820,7 +16834,7 @@
       <c r="Q91"/>
       <c r="AMP91"/>
     </row>
-    <row r="92" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A92" s="18">
         <v>90</v>
       </c>
@@ -16862,7 +16876,7 @@
       <c r="Q92"/>
       <c r="AMP92"/>
     </row>
-    <row r="93" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>91</v>
       </c>
@@ -16898,7 +16912,7 @@
       <c r="Q93"/>
       <c r="AMP93"/>
     </row>
-    <row r="94" spans="1:17 1030:1030" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A94" s="18">
         <v>92</v>
       </c>
@@ -16934,7 +16948,7 @@
       <c r="Q94"/>
       <c r="AMP94"/>
     </row>
-    <row r="95" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="18">
         <v>93</v>
       </c>
@@ -16976,7 +16990,7 @@
       <c r="Q95"/>
       <c r="AMP95"/>
     </row>
-    <row r="96" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <v>94</v>
       </c>
@@ -17010,7 +17024,7 @@
       <c r="Q96"/>
       <c r="AMP96"/>
     </row>
-    <row r="97" spans="1:17 1030:1030" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17 1030:1030" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
         <v>95</v>
       </c>
@@ -17052,7 +17066,7 @@
       <c r="Q97"/>
       <c r="AMP97"/>
     </row>
-    <row r="98" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
         <v>96</v>
       </c>
@@ -17094,7 +17108,7 @@
       <c r="Q98"/>
       <c r="AMP98"/>
     </row>
-    <row r="99" spans="1:17 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
         <v>97</v>
       </c>
@@ -17136,7 +17150,7 @@
       <c r="Q99"/>
       <c r="AMP99"/>
     </row>
-    <row r="100" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>98</v>
       </c>
@@ -17178,7 +17192,7 @@
       <c r="Q100"/>
       <c r="AMP100"/>
     </row>
-    <row r="101" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="18">
         <v>99</v>
       </c>
@@ -17220,7 +17234,7 @@
       <c r="Q101"/>
       <c r="AMP101"/>
     </row>
-    <row r="102" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
         <v>100</v>
       </c>
@@ -17262,7 +17276,7 @@
       <c r="Q102"/>
       <c r="AMP102"/>
     </row>
-    <row r="103" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>101</v>
       </c>
@@ -17298,7 +17312,7 @@
       <c r="Q103"/>
       <c r="AMP103"/>
     </row>
-    <row r="104" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17 1030:1030" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
         <v>102</v>
       </c>
@@ -17334,7 +17348,7 @@
       <c r="Q104"/>
       <c r="AMP104"/>
     </row>
-    <row r="105" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="18">
         <v>103</v>
       </c>
@@ -17370,7 +17384,7 @@
       <c r="Q105"/>
       <c r="AMP105"/>
     </row>
-    <row r="106" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
         <v>104</v>
       </c>
@@ -17406,7 +17420,7 @@
       <c r="Q106"/>
       <c r="AMP106"/>
     </row>
-    <row r="107" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
         <v>105</v>
       </c>
@@ -17442,7 +17456,7 @@
       <c r="Q107"/>
       <c r="AMP107"/>
     </row>
-    <row r="108" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
         <v>106</v>
       </c>
@@ -17478,7 +17492,7 @@
       <c r="Q108"/>
       <c r="AMP108"/>
     </row>
-    <row r="109" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
         <v>107</v>
       </c>
@@ -17514,7 +17528,7 @@
       <c r="Q109"/>
       <c r="AMP109"/>
     </row>
-    <row r="110" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
         <v>108</v>
       </c>
@@ -17554,7 +17568,7 @@
       <c r="Q110"/>
       <c r="AMP110"/>
     </row>
-    <row r="111" spans="1:17 1030:1030" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17 1030:1030" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
         <v>109</v>
       </c>
@@ -17589,7 +17603,7 @@
       <c r="L111" s="3"/>
       <c r="AMP111"/>
     </row>
-    <row r="112" spans="1:17 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="18">
         <v>110</v>
       </c>
@@ -17624,7 +17638,7 @@
       <c r="L112" s="3"/>
       <c r="AMP112"/>
     </row>
-    <row r="113" spans="1:12 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="18">
         <v>111</v>
       </c>
@@ -17659,7 +17673,7 @@
       <c r="L113" s="3"/>
       <c r="AMP113"/>
     </row>
-    <row r="114" spans="1:12 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="18">
         <v>112</v>
       </c>
@@ -17694,7 +17708,7 @@
       <c r="L114" s="3"/>
       <c r="AMP114"/>
     </row>
-    <row r="115" spans="1:12 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
         <v>113</v>
       </c>
@@ -17729,7 +17743,7 @@
       <c r="L115" s="3"/>
       <c r="AMP115"/>
     </row>
-    <row r="116" spans="1:12 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
         <v>114</v>
       </c>
@@ -17758,7 +17772,7 @@
       <c r="L116" s="3"/>
       <c r="AMP116"/>
     </row>
-    <row r="117" spans="1:12 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="18">
         <v>115</v>
       </c>
@@ -17787,7 +17801,7 @@
       <c r="L117" s="3"/>
       <c r="AMP117"/>
     </row>
-    <row r="118" spans="1:12 1030:1030" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12 1030:1030" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>116</v>
       </c>
@@ -17816,7 +17830,7 @@
       <c r="L118" s="3"/>
       <c r="AMP118"/>
     </row>
-    <row r="119" spans="1:12 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
         <v>117</v>
       </c>
@@ -17845,7 +17859,7 @@
       <c r="L119" s="3"/>
       <c r="AMP119"/>
     </row>
-    <row r="120" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
         <v>118</v>
       </c>
@@ -17876,7 +17890,7 @@
       <c r="L120" s="3"/>
       <c r="AMP120"/>
     </row>
-    <row r="121" spans="1:12 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
         <v>119</v>
       </c>
@@ -17911,7 +17925,7 @@
       <c r="L121" s="3"/>
       <c r="AMP121"/>
     </row>
-    <row r="122" spans="1:12 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="18">
         <v>120</v>
       </c>
@@ -17946,7 +17960,7 @@
       <c r="L122" s="3"/>
       <c r="AMP122"/>
     </row>
-    <row r="123" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
         <v>121</v>
       </c>
@@ -17981,7 +17995,7 @@
       <c r="L123" s="3"/>
       <c r="AMP123"/>
     </row>
-    <row r="124" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>122</v>
       </c>
@@ -18016,7 +18030,7 @@
       <c r="L124" s="3"/>
       <c r="AMP124"/>
     </row>
-    <row r="125" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="A125" s="18">
         <v>123</v>
       </c>
@@ -18051,7 +18065,7 @@
       <c r="L125" s="3"/>
       <c r="AMP125"/>
     </row>
-    <row r="126" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="A126" s="18">
         <v>124</v>
       </c>
@@ -18086,7 +18100,7 @@
       <c r="L126" s="3"/>
       <c r="AMP126"/>
     </row>
-    <row r="127" spans="1:12 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="18">
         <v>125</v>
       </c>
@@ -18121,7 +18135,7 @@
       <c r="L127" s="3"/>
       <c r="AMP127"/>
     </row>
-    <row r="128" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="A128" s="18">
         <v>126</v>
       </c>
@@ -18156,7 +18170,7 @@
       <c r="L128" s="3"/>
       <c r="AMP128"/>
     </row>
-    <row r="129" spans="1:12 1030:1030" ht="29" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12 1030:1030" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="18">
         <v>127</v>
       </c>
@@ -18191,8 +18205,8 @@
       <c r="L129" s="3"/>
       <c r="AMP129"/>
     </row>
-    <row r="132" spans="1:12 1030:1030" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="133" spans="1:12 1030:1030" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12 1030:1030" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="1:12 1030:1030" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B133" s="98" t="s">
         <v>971</v>
       </c>
@@ -18205,7 +18219,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="B134" s="106" t="s">
         <v>948</v>
       </c>
@@ -18218,7 +18232,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="B135" s="104" t="s">
         <v>952</v>
       </c>
@@ -18231,7 +18245,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="B136" s="104" t="s">
         <v>954</v>
       </c>
@@ -18244,7 +18258,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="B137" s="104" t="s">
         <v>953</v>
       </c>
@@ -18257,7 +18271,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:12 1030:1030" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12 1030:1030" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" s="105" t="s">
         <v>955</v>
       </c>
@@ -18270,15 +18284,15 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:12 1030:1030" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12 1030:1030" x14ac:dyDescent="0.3">
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
@@ -18306,24 +18320,24 @@
       <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="130" customWidth="1"/>
-    <col min="2" max="2" width="44.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="131" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="132" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="132" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="18.81640625" style="2" customWidth="1"/>
-    <col min="13" max="1026" width="9.453125" style="2" customWidth="1"/>
-    <col min="1027" max="16384" width="8.81640625" style="97"/>
+    <col min="1" max="1" width="6.44140625" style="130" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="131" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="132" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="132" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="18.77734375" style="2" customWidth="1"/>
+    <col min="13" max="1026" width="9.44140625" style="2" customWidth="1"/>
+    <col min="1027" max="16384" width="8.77734375" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="210" t="s">
         <v>91</v>
       </c>
@@ -18339,7 +18353,7 @@
       <c r="K1" s="211"/>
       <c r="L1" s="211"/>
     </row>
-    <row r="2" spans="1:1026" s="115" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1026" s="115" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
@@ -18377,7 +18391,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="3" spans="1:1026" s="117" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1026" s="117" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="116">
         <v>1</v>
       </c>
@@ -19417,7 +19431,7 @@
       <c r="AMK3" s="114"/>
       <c r="AML3" s="114"/>
     </row>
-    <row r="4" spans="1:1026" s="117" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1026" s="117" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="116">
         <v>2</v>
       </c>
@@ -20457,7 +20471,7 @@
       <c r="AMK4" s="114"/>
       <c r="AML4" s="114"/>
     </row>
-    <row r="5" spans="1:1026" ht="52" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1026" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="63">
         <v>3</v>
       </c>
@@ -20483,7 +20497,7 @@
       <c r="K5" s="70"/>
       <c r="L5" s="70"/>
     </row>
-    <row r="6" spans="1:1026" ht="26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1026" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="63">
         <v>4</v>
       </c>
@@ -20507,7 +20521,7 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:1026" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1026" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="63">
         <v>5</v>
       </c>
@@ -20531,7 +20545,7 @@
       <c r="K7" s="70"/>
       <c r="L7" s="70"/>
     </row>
-    <row r="8" spans="1:1026" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1026" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="63">
         <v>6</v>
       </c>
@@ -20557,7 +20571,7 @@
       <c r="K8" s="70"/>
       <c r="L8" s="70"/>
     </row>
-    <row r="9" spans="1:1026" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1026" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="63">
         <v>7</v>
       </c>
@@ -20581,7 +20595,7 @@
       <c r="K9" s="70"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="1:1026" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1026" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="63">
         <v>8</v>
       </c>
@@ -20605,7 +20619,7 @@
       <c r="K10" s="70"/>
       <c r="L10" s="70"/>
     </row>
-    <row r="11" spans="1:1026" s="122" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1026" s="122" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="120">
         <v>9</v>
       </c>
@@ -21641,7 +21655,7 @@
       <c r="AMK11" s="121"/>
       <c r="AML11" s="121"/>
     </row>
-    <row r="12" spans="1:1026" s="122" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1026" s="122" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="120">
         <v>10</v>
       </c>
@@ -22677,7 +22691,7 @@
       <c r="AMK12" s="121"/>
       <c r="AML12" s="121"/>
     </row>
-    <row r="13" spans="1:1026" s="122" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1026" s="122" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="120">
         <v>11</v>
       </c>
@@ -23713,7 +23727,7 @@
       <c r="AMK13" s="121"/>
       <c r="AML13" s="121"/>
     </row>
-    <row r="14" spans="1:1026" s="122" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1026" s="122" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="120">
         <v>12</v>
       </c>
@@ -24749,7 +24763,7 @@
       <c r="AMK14" s="121"/>
       <c r="AML14" s="121"/>
     </row>
-    <row r="15" spans="1:1026" ht="364" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1026" ht="396" x14ac:dyDescent="0.3">
       <c r="A15" s="63">
         <v>1</v>
       </c>
@@ -24785,7 +24799,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="16" spans="1:1026" ht="234.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1026" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="63">
         <v>2</v>
       </c>
@@ -24821,7 +24835,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="17" spans="1:1026" ht="364" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1026" ht="396" x14ac:dyDescent="0.3">
       <c r="A17" s="63">
         <v>3</v>
       </c>
@@ -24857,7 +24871,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="18" spans="1:1026" ht="247" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1026" ht="264" x14ac:dyDescent="0.3">
       <c r="A18" s="63">
         <v>4</v>
       </c>
@@ -24893,7 +24907,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="19" spans="1:1026" s="117" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1026" s="117" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="116">
         <v>17</v>
       </c>
@@ -25929,7 +25943,7 @@
       <c r="AMK19" s="114"/>
       <c r="AML19" s="114"/>
     </row>
-    <row r="20" spans="1:1026" s="117" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1026" s="117" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="116">
         <v>18</v>
       </c>
@@ -26965,7 +26979,7 @@
       <c r="AMK20" s="114"/>
       <c r="AML20" s="114"/>
     </row>
-    <row r="21" spans="1:1026" s="55" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1026" s="55" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B21" s="55" t="s">
         <v>120</v>
       </c>
@@ -26982,7 +26996,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1026" ht="338" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1026" ht="356.4" x14ac:dyDescent="0.3">
       <c r="A22" s="124">
         <v>5</v>
       </c>
@@ -27016,7 +27030,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="23" spans="1:1026" ht="273" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1026" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A23" s="124">
         <v>6</v>
       </c>
@@ -27048,7 +27062,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="24" spans="1:1026" ht="260" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1026" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A24" s="124">
         <v>7</v>
       </c>
@@ -27080,7 +27094,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="25" spans="1:1026" ht="247" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1026" ht="262.2" x14ac:dyDescent="0.3">
       <c r="A25" s="125">
         <v>19</v>
       </c>
@@ -27110,7 +27124,7 @@
       <c r="K25" s="70"/>
       <c r="L25" s="70"/>
     </row>
-    <row r="26" spans="1:1026" ht="338" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1026" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A26" s="124">
         <v>8</v>
       </c>
@@ -27142,7 +27156,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="27" spans="1:1026" s="122" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1026" s="122" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="120"/>
       <c r="B27" s="68" t="s">
         <v>125</v>
@@ -28176,7 +28190,7 @@
       <c r="AMK27" s="121"/>
       <c r="AML27" s="121"/>
     </row>
-    <row r="28" spans="1:1026" s="122" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1026" s="122" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="120"/>
       <c r="B28" s="68" t="s">
         <v>126</v>
@@ -29210,7 +29224,7 @@
       <c r="AMK28" s="121"/>
       <c r="AML28" s="121"/>
     </row>
-    <row r="29" spans="1:1026" s="122" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1026" s="122" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A29" s="120"/>
       <c r="B29" s="68" t="s">
         <v>147</v>
@@ -30248,7 +30262,7 @@
       <c r="AMK29" s="121"/>
       <c r="AML29" s="121"/>
     </row>
-    <row r="30" spans="1:1026" ht="325" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1026" ht="330" x14ac:dyDescent="0.3">
       <c r="A30" s="124">
         <v>9</v>
       </c>
@@ -30280,7 +30294,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="31" spans="1:1026" ht="273" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1026" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A31" s="124">
         <v>10</v>
       </c>
@@ -30314,7 +30328,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="32" spans="1:1026" s="128" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1026" s="128" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="124">
         <v>11</v>
       </c>
@@ -31358,7 +31372,7 @@
       <c r="AMK32" s="127"/>
       <c r="AML32" s="127"/>
     </row>
-    <row r="33" spans="1:12" ht="260" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="264" x14ac:dyDescent="0.3">
       <c r="A33" s="124">
         <v>11</v>
       </c>
@@ -31390,7 +31404,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="312" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="330" x14ac:dyDescent="0.3">
       <c r="A34" s="130">
         <v>12</v>
       </c>
@@ -31433,20 +31447,20 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="29.453125" style="3" customWidth="1"/>
-    <col min="10" max="1027" width="9.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.44140625" style="3" customWidth="1"/>
+    <col min="10" max="1027" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="212" t="s">
         <v>127</v>
       </c>
@@ -31459,7 +31473,7 @@
       <c r="H1" s="212"/>
       <c r="I1" s="212"/>
     </row>
-    <row r="2" spans="1:10" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -31491,7 +31505,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -31508,7 +31522,7 @@
       <c r="H3" s="28"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -31525,7 +31539,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -31542,7 +31556,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -31559,7 +31573,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -31576,7 +31590,7 @@
       <c r="H7" s="28"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -31593,7 +31607,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -31610,7 +31624,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -31646,24 +31660,24 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.453125" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.44140625" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="54" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.81640625" style="3" customWidth="1"/>
-    <col min="13" max="1025" width="9.453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" style="3" customWidth="1"/>
+    <col min="13" max="1025" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="201" t="s">
         <v>177</v>
       </c>
@@ -31679,7 +31693,7 @@
       <c r="K1" s="202"/>
       <c r="L1" s="203"/>
     </row>
-    <row r="2" spans="1:26" ht="39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -31717,7 +31731,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="7" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="7" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -31763,7 +31777,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="7" customFormat="1" ht="169" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="7" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
@@ -31810,7 +31824,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="7" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="7" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A41" si="0">A4+1</f>
         <v>3</v>
@@ -31857,7 +31871,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="7" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31902,7 +31916,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="7" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f>A9+1</f>
         <v>7</v>
@@ -31949,7 +31963,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" s="7" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f>A6+1</f>
         <v>5</v>
@@ -31994,7 +32008,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32039,7 +32053,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32072,7 +32086,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="7" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f>A7+1</f>
         <v>8</v>
@@ -32119,7 +32133,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="7" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32166,7 +32180,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="7" customFormat="1" ht="117" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="7" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f>A12+1</f>
         <v>10</v>
@@ -32211,7 +32225,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="7" customFormat="1" ht="208" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="7" customFormat="1" ht="224.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f>A13+1</f>
         <v>11</v>
@@ -32258,7 +32272,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="7" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="7" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" ref="A15:A22" si="1">A14+1</f>
         <v>12</v>
@@ -32303,7 +32317,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="7" customFormat="1" ht="130" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -32348,7 +32362,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:1025" s="7" customFormat="1" ht="130" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1025" s="7" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -32389,7 +32403,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:1025" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1025" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -33425,7 +33439,7 @@
       <c r="AMJ18" s="51"/>
       <c r="AMK18" s="51"/>
     </row>
-    <row r="19" spans="1:1025" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1025" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -34461,7 +34475,7 @@
       <c r="AMJ19" s="51"/>
       <c r="AMK19" s="51"/>
     </row>
-    <row r="20" spans="1:1025" ht="117" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1025" ht="132" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -34494,7 +34508,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="21" spans="1:1025" s="78" customFormat="1" ht="143" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1025" s="78" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="73">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -35540,7 +35554,7 @@
       <c r="AMJ21" s="77"/>
       <c r="AMK21" s="77"/>
     </row>
-    <row r="22" spans="1:1025" s="52" customFormat="1" ht="39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1025" s="52" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A22" s="48">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -36578,7 +36592,7 @@
       <c r="AMJ22" s="51"/>
       <c r="AMK22" s="51"/>
     </row>
-    <row r="23" spans="1:1025" ht="104" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1025" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -36611,7 +36625,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="24" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -36642,7 +36656,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -36673,7 +36687,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="26" spans="1:1025" ht="91" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -36704,7 +36718,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="27" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -36735,7 +36749,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="28" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1025" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -36766,7 +36780,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="29" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -36797,7 +36811,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="30" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -36828,7 +36842,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="31" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -36859,7 +36873,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -36890,7 +36904,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="33" spans="1:1025" ht="39" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -36921,7 +36935,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="34" spans="1:1025" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1025" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -37955,7 +37969,7 @@
       <c r="AMJ34" s="51"/>
       <c r="AMK34" s="51"/>
     </row>
-    <row r="35" spans="1:1025" ht="234" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1025" ht="237.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -37986,7 +38000,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="36" spans="1:1025" ht="182" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1025" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -38017,7 +38031,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="37" spans="1:1025" ht="117" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1025" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -38048,7 +38062,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="38" spans="1:1025" s="80" customFormat="1" ht="78" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1025" s="80" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A38" s="81">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -39088,7 +39102,7 @@
       <c r="AMJ38" s="79"/>
       <c r="AMK38" s="79"/>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -39117,7 +39131,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="40" spans="1:1025" ht="117" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1025" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -39148,7 +39162,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="41" spans="1:1025" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1025" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41" s="45">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -39175,7 +39189,7 @@
       <c r="K41" s="71"/>
       <c r="L41" s="71"/>
     </row>
-    <row r="42" spans="1:1025" ht="78" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -39205,7 +39219,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="43" spans="1:1025" ht="130" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1025" ht="132" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -39235,7 +39249,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="44" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -39265,7 +39279,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="45" spans="1:1025" ht="65" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -39295,7 +39309,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="46" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -39325,7 +39339,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="104" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>44</v>
       </c>
@@ -39355,7 +39369,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" ht="26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -39385,7 +39399,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>46</v>
       </c>
@@ -39415,7 +39429,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -39445,7 +39459,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="52" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>48</v>
       </c>
@@ -39475,7 +39489,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="117" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -39505,7 +39519,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="39" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>50</v>
       </c>
@@ -39537,7 +39551,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -39567,7 +39581,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>52</v>
       </c>
@@ -39597,7 +39611,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -39627,7 +39641,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>54</v>
       </c>
@@ -39657,7 +39671,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="52" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -39709,24 +39723,24 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.453125" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.44140625" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="54" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.81640625" style="3" customWidth="1"/>
-    <col min="13" max="1025" width="9.453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" style="3" customWidth="1"/>
+    <col min="13" max="1025" width="9.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="201" t="s">
         <v>177</v>
       </c>
@@ -39742,7 +39756,7 @@
       <c r="K1" s="202"/>
       <c r="L1" s="203"/>
     </row>
-    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="173" t="s">
         <v>1</v>
       </c>
@@ -39780,7 +39794,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="7" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="7" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="177">
         <v>1</v>
       </c>
@@ -39818,7 +39832,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="192">
         <v>2</v>
       </c>
@@ -39840,7 +39854,7 @@
       <c r="K4" s="62"/>
       <c r="L4" s="193"/>
     </row>
-    <row r="5" spans="1:26" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="194">
         <v>3</v>
       </c>

--- a/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final).xlsx
+++ b/docs/requirements/MOSIP_Configurations_Consolidated List_Updated_14Nov18_CV_Final).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1002694\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D208AB8-825F-4989-B9A2-8C2C52FE6C6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D043BE06-A47F-4E28-B921-EC98CC2B8D18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3821,9 +3821,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Karthik to re-check current implementation</t>
-  </si>
-  <si>
     <t>Mindtree Comments-06May19</t>
   </si>
   <si>
@@ -4162,6 +4159,10 @@
       </rPr>
       <t>Individual is authenticated using biometric on the reg client.</t>
     </r>
+  </si>
+  <si>
+    <t>Karthik to re-check current implementation
+Update: Audit data is deleted along with the packet, and not separately.</t>
   </si>
 </sst>
 </file>
@@ -4991,7 +4992,7 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5444,9 +5445,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5635,6 +5633,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7795,18 +7802,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="202"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="201"/>
     </row>
     <row r="2" spans="1:28" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -7837,7 +7844,7 @@
         <v>215</v>
       </c>
       <c r="J2" s="153" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -8401,26 +8408,26 @@
     <col min="7" max="7" width="33.44140625" style="152" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="36.44140625" style="152" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="35.44140625" style="152" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" style="160" customWidth="1"/>
-    <col min="11" max="11" width="25.44140625" style="160" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="159" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" style="159" customWidth="1"/>
     <col min="12" max="1025" width="9.44140625" style="148" customWidth="1"/>
     <col min="1026" max="16384" width="8.77734375" style="149"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="203" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="205"/>
+      <c r="A1" s="202" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="204"/>
     </row>
     <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
@@ -8451,10 +8458,10 @@
         <v>215</v>
       </c>
       <c r="J2" s="142" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K2" s="142" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="150" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -8483,11 +8490,11 @@
       <c r="I3" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="J3" s="158" t="s">
+      <c r="J3" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="158" t="s">
-        <v>1007</v>
+      <c r="K3" s="157" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="150" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -8514,11 +8521,11 @@
       <c r="I4" s="32" t="s">
         <v>511</v>
       </c>
-      <c r="J4" s="158" t="s">
+      <c r="J4" s="157" t="s">
         <v>971</v>
       </c>
-      <c r="K4" s="158" t="s">
-        <v>1007</v>
+      <c r="K4" s="157" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="150" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -8531,7 +8538,7 @@
       <c r="C5" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="158" t="s">
+      <c r="D5" s="157" t="s">
         <v>973</v>
       </c>
       <c r="E5" s="32" t="s">
@@ -8547,11 +8554,11 @@
       <c r="I5" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="J5" s="158" t="s">
+      <c r="J5" s="157" t="s">
         <v>973</v>
       </c>
-      <c r="K5" s="158" t="s">
-        <v>1001</v>
+      <c r="K5" s="157" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="150" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -8564,7 +8571,7 @@
       <c r="C6" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="157" t="s">
         <v>972</v>
       </c>
       <c r="E6" s="32" t="s">
@@ -8580,11 +8587,11 @@
       <c r="I6" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="J6" s="158" t="s">
+      <c r="J6" s="157" t="s">
         <v>972</v>
       </c>
-      <c r="K6" s="158" t="s">
-        <v>1001</v>
+      <c r="K6" s="157" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
@@ -8597,7 +8604,7 @@
       <c r="C7" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="157" t="s">
         <v>973</v>
       </c>
       <c r="E7" s="32" t="s">
@@ -8613,11 +8620,11 @@
       <c r="I7" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="J7" s="158" t="s">
+      <c r="J7" s="157" t="s">
         <v>973</v>
       </c>
-      <c r="K7" s="158" t="s">
-        <v>1001</v>
+      <c r="K7" s="157" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
@@ -8630,7 +8637,7 @@
       <c r="C8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="158" t="s">
         <v>974</v>
       </c>
       <c r="E8" s="32" t="s">
@@ -8646,11 +8653,11 @@
       <c r="I8" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="J8" s="159" t="s">
+      <c r="J8" s="158" t="s">
         <v>974</v>
       </c>
-      <c r="K8" s="158" t="s">
-        <v>1001</v>
+      <c r="K8" s="157" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
@@ -8679,11 +8686,11 @@
       <c r="I9" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="J9" s="195" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K9" s="158" t="s">
-        <v>1007</v>
+      <c r="J9" s="194" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K9" s="157" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.25">
@@ -8712,11 +8719,11 @@
       <c r="I10" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="J10" s="195" t="s">
-        <v>1042</v>
-      </c>
-      <c r="K10" s="158" t="s">
-        <v>1007</v>
+      <c r="J10" s="194" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K10" s="157" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -8724,7 +8731,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>9</v>
@@ -8745,11 +8752,11 @@
       <c r="I11" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="J11" s="159" t="s">
+      <c r="J11" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="158" t="s">
-        <v>1007</v>
+      <c r="K11" s="157" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="118.8" x14ac:dyDescent="0.25">
@@ -8757,7 +8764,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>9</v>
@@ -8778,11 +8785,11 @@
       <c r="I12" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="J12" s="195" t="s">
-        <v>1041</v>
-      </c>
-      <c r="K12" s="158" t="s">
-        <v>1007</v>
+      <c r="J12" s="194" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K12" s="157" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
@@ -8811,11 +8818,11 @@
       <c r="I13" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="J13" s="159" t="s">
+      <c r="J13" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="158" t="s">
-        <v>1007</v>
+      <c r="K13" s="157" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
@@ -8842,11 +8849,11 @@
       <c r="I14" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="J14" s="159" t="s">
+      <c r="J14" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="158" t="s">
-        <v>1007</v>
+      <c r="K14" s="157" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8871,8 +8878,8 @@
         <v>540</v>
       </c>
       <c r="I15" s="32"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
     </row>
     <row r="16" spans="1:11" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A16" s="143">
@@ -8894,8 +8901,8 @@
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
     </row>
     <row r="17" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A17" s="143">
@@ -8915,8 +8922,8 @@
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
     </row>
     <row r="18" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="143">
@@ -8936,8 +8943,8 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
     </row>
     <row r="19" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="143">
@@ -8957,8 +8964,8 @@
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
     </row>
     <row r="20" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A20" s="143">
@@ -8978,8 +8985,8 @@
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="158"/>
     </row>
     <row r="21" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A21" s="143">
@@ -8999,8 +9006,8 @@
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="158"/>
     </row>
     <row r="22" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A22" s="143">
@@ -9020,8 +9027,8 @@
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
     </row>
     <row r="23" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A23" s="143">
@@ -9041,8 +9048,8 @@
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="159"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158"/>
     </row>
     <row r="24" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="143">
@@ -9062,8 +9069,8 @@
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="159"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="158"/>
     </row>
     <row r="25" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A25" s="143">
@@ -9087,8 +9094,8 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="159"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="158"/>
     </row>
     <row r="26" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A26" s="143">
@@ -9108,8 +9115,8 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="159"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
     </row>
     <row r="27" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A27" s="143">
@@ -9129,8 +9136,8 @@
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="159"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="158"/>
     </row>
     <row r="28" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A28" s="143">
@@ -9152,8 +9159,8 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="106"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="159"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="158"/>
     </row>
     <row r="29" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A29" s="143">
@@ -9175,8 +9182,8 @@
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="159"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9195,8 +9202,8 @@
   <dimension ref="A1:AMM76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9215,19 +9222,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="208"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="207"/>
     </row>
     <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -9255,13 +9262,13 @@
         <v>216</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
@@ -9294,7 +9301,7 @@
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="211.2" x14ac:dyDescent="0.3">
@@ -9308,7 +9315,7 @@
       <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="196" t="s">
+      <c r="D4" s="195" t="s">
         <v>571</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -9328,7 +9335,7 @@
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="250.8" x14ac:dyDescent="0.3">
@@ -9398,7 +9405,7 @@
       <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="197">
+      <c r="D7" s="196">
         <v>80</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -9420,7 +9427,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
@@ -9434,7 +9441,7 @@
       <c r="C8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="197">
+      <c r="D8" s="196">
         <v>3</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -9454,7 +9461,7 @@
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
@@ -9468,7 +9475,7 @@
       <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="197">
+      <c r="D9" s="196">
         <v>80</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -9490,7 +9497,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
@@ -9504,7 +9511,7 @@
       <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="197">
+      <c r="D10" s="196">
         <v>3</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -9524,7 +9531,7 @@
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
@@ -9538,7 +9545,7 @@
       <c r="C11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <v>80</v>
       </c>
       <c r="E11" s="34" t="s">
@@ -9550,8 +9557,8 @@
       <c r="G11" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="170" t="s">
-        <v>1044</v>
+      <c r="H11" s="169" t="s">
+        <v>1043</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>976</v>
@@ -9560,7 +9567,7 @@
         <v>11</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -9574,10 +9581,10 @@
       <c r="C12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <v>3</v>
       </c>
-      <c r="E12" s="212" t="s">
+      <c r="E12" s="211" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="34" t="s">
@@ -9586,15 +9593,15 @@
       <c r="G12" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="170" t="s">
-        <v>1045</v>
+      <c r="H12" s="169" t="s">
+        <v>1044</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
@@ -9628,7 +9635,7 @@
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="237.6" x14ac:dyDescent="0.3">
@@ -9662,7 +9669,7 @@
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
@@ -9676,7 +9683,7 @@
       <c r="C15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="197"/>
+      <c r="D15" s="196"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
         <v>11</v>
@@ -9706,7 +9713,7 @@
       <c r="C16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="197"/>
+      <c r="D16" s="196"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
         <v>11</v>
@@ -9754,7 +9761,7 @@
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
@@ -9786,7 +9793,7 @@
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -9800,7 +9807,7 @@
       <c r="C19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="198"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34" t="s">
         <v>11</v>
@@ -9824,7 +9831,7 @@
       <c r="C20" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="198"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34" t="s">
         <v>11</v>
@@ -9849,7 +9856,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
@@ -9881,7 +9888,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
@@ -9912,7 +9919,7 @@
       <c r="C23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="198"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34" t="s">
         <v>11</v>
@@ -9936,7 +9943,7 @@
       <c r="C24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="198"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34" t="s">
         <v>11</v>
@@ -9954,13 +9961,13 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="213" t="s">
+      <c r="B25" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="214" t="s">
+      <c r="C25" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="215" t="s">
+      <c r="D25" s="214" t="s">
         <v>220</v>
       </c>
       <c r="E25" s="53"/>
@@ -9970,15 +9977,15 @@
       <c r="G25" s="120" t="s">
         <v>368</v>
       </c>
-      <c r="H25" s="216" t="s">
-        <v>1047</v>
+      <c r="H25" s="215" t="s">
+        <v>1046</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>11</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
@@ -9992,7 +9999,7 @@
       <c r="C26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="197" t="s">
+      <c r="D26" s="196" t="s">
         <v>221</v>
       </c>
       <c r="E26" s="6"/>
@@ -10020,7 +10027,7 @@
       <c r="C27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="197" t="s">
+      <c r="D27" s="196" t="s">
         <v>223</v>
       </c>
       <c r="E27" s="6"/>
@@ -10040,7 +10047,7 @@
         <v>11</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
@@ -10054,7 +10061,7 @@
       <c r="C28" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="198" t="s">
+      <c r="D28" s="197" t="s">
         <v>223</v>
       </c>
       <c r="E28" s="34"/>
@@ -10064,8 +10071,8 @@
       <c r="G28" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="170" t="s">
-        <v>1048</v>
+      <c r="H28" s="169" t="s">
+        <v>1047</v>
       </c>
       <c r="I28" s="26" t="s">
         <v>976</v>
@@ -10074,39 +10081,39 @@
         <v>11</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="197" t="s">
+      <c r="D29" s="214" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="53"/>
+      <c r="F29" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="218" t="s">
         <v>371</v>
       </c>
-      <c r="H29" s="133" t="s">
+      <c r="H29" s="215" t="s">
         <v>479</v>
       </c>
       <c r="I29" s="26" t="s">
         <v>979</v>
       </c>
       <c r="J29" s="26"/>
-      <c r="K29" s="154" t="s">
-        <v>999</v>
+      <c r="K29" s="217" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="198" x14ac:dyDescent="0.3">
@@ -10140,7 +10147,7 @@
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="132" x14ac:dyDescent="0.3">
@@ -10174,7 +10181,7 @@
       </c>
       <c r="J31" s="26"/>
       <c r="K31" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
@@ -10208,7 +10215,7 @@
       </c>
       <c r="J32" s="26"/>
       <c r="K32" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="33" spans="1:1027" ht="118.8" x14ac:dyDescent="0.3">
@@ -10242,7 +10249,7 @@
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="34" spans="1:1027" ht="118.8" x14ac:dyDescent="0.3">
@@ -10276,7 +10283,7 @@
       </c>
       <c r="J34" s="26"/>
       <c r="K34" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="35" spans="1:1027" ht="158.4" x14ac:dyDescent="0.3">
@@ -10302,15 +10309,15 @@
       <c r="G35" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="H35" s="170" t="s">
+      <c r="H35" s="169" t="s">
         <v>485</v>
       </c>
-      <c r="I35" s="155" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J35" s="155"/>
-      <c r="K35" s="156" t="s">
-        <v>1002</v>
+      <c r="I35" s="154" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J35" s="154"/>
+      <c r="K35" s="155" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="36" spans="1:1027" ht="171.6" x14ac:dyDescent="0.3">
@@ -10336,7 +10343,7 @@
       <c r="G36" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="H36" s="170" t="s">
+      <c r="H36" s="169" t="s">
         <v>486</v>
       </c>
       <c r="I36" s="26" t="s">
@@ -10344,7 +10351,7 @@
       </c>
       <c r="J36" s="26"/>
       <c r="K36" s="26" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="37" spans="1:1027" ht="66" x14ac:dyDescent="0.3">
@@ -10400,7 +10407,7 @@
       </c>
       <c r="J38" s="26"/>
       <c r="K38" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="39" spans="1:1027" ht="118.8" x14ac:dyDescent="0.3">
@@ -10432,7 +10439,7 @@
       </c>
       <c r="J39" s="26"/>
       <c r="K39" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="40" spans="1:1027" ht="132" x14ac:dyDescent="0.3">
@@ -10466,7 +10473,7 @@
       </c>
       <c r="J40" s="26"/>
       <c r="K40" s="26" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="41" spans="1:1027" ht="171.6" x14ac:dyDescent="0.3">
@@ -10500,7 +10507,7 @@
       </c>
       <c r="J41" s="26"/>
       <c r="K41" s="26" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="42" spans="1:1027" ht="66" x14ac:dyDescent="0.3">
@@ -10514,7 +10521,7 @@
       <c r="C42" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <v>43466</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -10529,12 +10536,12 @@
       <c r="H42" s="136" t="s">
         <v>491</v>
       </c>
-      <c r="I42" s="157" t="s">
+      <c r="I42" s="156" t="s">
         <v>984</v>
       </c>
-      <c r="J42" s="157"/>
-      <c r="K42" s="157" t="s">
-        <v>1007</v>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156" t="s">
+        <v>1006</v>
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
@@ -11577,12 +11584,12 @@
       <c r="H43" s="133" t="s">
         <v>492</v>
       </c>
-      <c r="I43" s="157" t="s">
+      <c r="I43" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="157"/>
-      <c r="K43" s="157" t="s">
-        <v>1007</v>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156" t="s">
+        <v>1006</v>
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
@@ -12613,7 +12620,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="37"/>
@@ -12628,7 +12635,7 @@
       </c>
       <c r="J44" s="26"/>
       <c r="K44" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="45" spans="1:1027" x14ac:dyDescent="0.3">
@@ -12642,7 +12649,7 @@
       <c r="C45" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="198" t="s">
+      <c r="D45" s="197" t="s">
         <v>81</v>
       </c>
       <c r="E45" s="45"/>
@@ -12658,7 +12665,7 @@
       </c>
       <c r="J45" s="45"/>
       <c r="K45" s="45" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="46" spans="1:1027" ht="132" x14ac:dyDescent="0.3">
@@ -12688,7 +12695,7 @@
       </c>
       <c r="J46" s="26"/>
       <c r="K46" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="47" spans="1:1027" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -12718,7 +12725,7 @@
       </c>
       <c r="J47" s="26"/>
       <c r="K47" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="48" spans="1:1027" ht="79.2" x14ac:dyDescent="0.3">
@@ -12750,7 +12757,7 @@
       </c>
       <c r="J48" s="26"/>
       <c r="K48" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
@@ -12782,31 +12789,31 @@
       </c>
       <c r="J49" s="26"/>
       <c r="K49" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="219" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="212" t="s">
         <v>227</v>
       </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37" t="s">
+      <c r="F50" s="218"/>
+      <c r="G50" s="218" t="s">
         <v>390</v>
       </c>
-      <c r="H50" s="133" t="s">
+      <c r="H50" s="215" t="s">
         <v>499</v>
       </c>
       <c r="I50" s="26" t="s">
@@ -12814,7 +12821,7 @@
       </c>
       <c r="J50" s="26"/>
       <c r="K50" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="132" x14ac:dyDescent="0.3">
@@ -12846,7 +12853,7 @@
       </c>
       <c r="J51" s="26"/>
       <c r="K51" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
@@ -12876,7 +12883,7 @@
       </c>
       <c r="J52" s="26"/>
       <c r="K52" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
@@ -12906,7 +12913,7 @@
       </c>
       <c r="J53" s="26"/>
       <c r="K53" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
@@ -12936,7 +12943,7 @@
       </c>
       <c r="J54" s="26"/>
       <c r="K54" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
@@ -12966,7 +12973,7 @@
       </c>
       <c r="J55" s="26"/>
       <c r="K55" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
@@ -12994,7 +13001,7 @@
       </c>
       <c r="J56" s="26"/>
       <c r="K56" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
@@ -13020,7 +13027,7 @@
       </c>
       <c r="J57" s="26"/>
       <c r="K57" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
@@ -13050,7 +13057,7 @@
       </c>
       <c r="J58" s="26"/>
       <c r="K58" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="132" x14ac:dyDescent="0.3">
@@ -13082,7 +13089,7 @@
       </c>
       <c r="J59" s="26"/>
       <c r="K59" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -13114,7 +13121,7 @@
       </c>
       <c r="J60" s="26"/>
       <c r="K60" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -13145,7 +13152,7 @@
       </c>
       <c r="J61" s="26"/>
       <c r="K61" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -13176,7 +13183,7 @@
       </c>
       <c r="J62" s="26"/>
       <c r="K62" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -13207,7 +13214,7 @@
       </c>
       <c r="J63" s="26"/>
       <c r="K63" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -13238,7 +13245,7 @@
       </c>
       <c r="J64" s="26"/>
       <c r="K64" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -13269,7 +13276,7 @@
       </c>
       <c r="J65" s="26"/>
       <c r="K65" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -13300,7 +13307,7 @@
       </c>
       <c r="J66" s="26"/>
       <c r="K66" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -13331,7 +13338,7 @@
       </c>
       <c r="J67" s="26"/>
       <c r="K67" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
@@ -13360,7 +13367,7 @@
       </c>
       <c r="J68" s="26"/>
       <c r="K68" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -13387,7 +13394,7 @@
       </c>
       <c r="J69" s="26"/>
       <c r="K69" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -13414,7 +13421,7 @@
       </c>
       <c r="J70" s="26"/>
       <c r="K70" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -13441,7 +13448,7 @@
       </c>
       <c r="J71" s="26"/>
       <c r="K71" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -13468,7 +13475,7 @@
       </c>
       <c r="J72" s="26"/>
       <c r="K72" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -13495,7 +13502,7 @@
       </c>
       <c r="J73" s="26"/>
       <c r="K73" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="66" x14ac:dyDescent="0.3">
@@ -13516,15 +13523,15 @@
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
-      <c r="H74" s="217" t="s">
-        <v>1049</v>
+      <c r="H74" s="216" t="s">
+        <v>1048</v>
       </c>
       <c r="I74" s="26" t="s">
         <v>967</v>
       </c>
       <c r="J74" s="26"/>
       <c r="K74" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
@@ -13538,7 +13545,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -13551,7 +13558,7 @@
       </c>
       <c r="J75" s="26"/>
       <c r="K75" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
@@ -13566,7 +13573,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -13579,7 +13586,7 @@
       </c>
       <c r="J76" s="26"/>
       <c r="K76" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -13624,19 +13631,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17 1030:1030" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="199" t="s">
         <v>965</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="208"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="207"/>
       <c r="L1" s="3"/>
       <c r="AMP1"/>
     </row>
@@ -13666,10 +13673,10 @@
         <v>6</v>
       </c>
       <c r="I2" s="95" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J2" s="95" t="s">
         <v>1016</v>
-      </c>
-      <c r="J2" s="95" t="s">
-        <v>1017</v>
       </c>
       <c r="K2" s="95" t="s">
         <v>903</v>
@@ -18407,20 +18414,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="208" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
     </row>
     <row r="2" spans="1:1026" s="114" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
@@ -18451,13 +18458,13 @@
         <v>215</v>
       </c>
       <c r="J2" s="95" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K2" s="95" t="s">
         <v>1016</v>
       </c>
-      <c r="K2" s="95" t="s">
-        <v>1017</v>
-      </c>
       <c r="L2" s="95" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3" spans="1:1026" s="116" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24865,7 +24872,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="16" spans="1:1026" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24901,7 +24908,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="17" spans="1:1026" ht="396" x14ac:dyDescent="0.3">
@@ -24937,7 +24944,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="18" spans="1:1026" ht="264" x14ac:dyDescent="0.3">
@@ -24973,7 +24980,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="19" spans="1:1026" s="116" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
@@ -27096,7 +27103,7 @@
       </c>
       <c r="K22" s="69"/>
       <c r="L22" s="69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="23" spans="1:1026" ht="277.2" x14ac:dyDescent="0.3">
@@ -27128,7 +27135,7 @@
       </c>
       <c r="K23" s="69"/>
       <c r="L23" s="69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="24" spans="1:1026" ht="277.2" x14ac:dyDescent="0.3">
@@ -27160,7 +27167,7 @@
       </c>
       <c r="K24" s="69"/>
       <c r="L24" s="69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="25" spans="1:1026" ht="262.2" x14ac:dyDescent="0.3">
@@ -27222,7 +27229,7 @@
       <c r="J26" s="69"/>
       <c r="K26" s="69"/>
       <c r="L26" s="69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="27" spans="1:1026" s="121" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -30342,7 +30349,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E30" s="27" t="s">
         <v>5</v>
@@ -30360,7 +30367,7 @@
       </c>
       <c r="K30" s="69"/>
       <c r="L30" s="69" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="31" spans="1:1026" ht="290.39999999999998" x14ac:dyDescent="0.3">
@@ -30370,7 +30377,7 @@
       <c r="B31" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="C31" s="168" t="s">
+      <c r="C31" s="167" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="57" t="s">
@@ -30379,22 +30386,22 @@
       <c r="E31" s="57" t="s">
         <v>597</v>
       </c>
-      <c r="F31" s="169"/>
+      <c r="F31" s="168"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55" t="s">
         <v>598</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J31" s="55" t="s">
         <v>992</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="32" spans="1:1026" s="127" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31470,7 +31477,7 @@
       </c>
       <c r="K33" s="69"/>
       <c r="L33" s="69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="330" x14ac:dyDescent="0.3">
@@ -31478,7 +31485,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>9</v>
@@ -31495,7 +31502,7 @@
       <c r="G34" s="69"/>
       <c r="H34" s="69"/>
       <c r="I34" s="69" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -31530,17 +31537,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="210" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
     </row>
     <row r="2" spans="1:10" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -31747,20 +31754,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="199" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="202"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="201"/>
     </row>
     <row r="2" spans="1:26" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -31781,23 +31788,23 @@
       <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="161" t="s">
+      <c r="G2" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="161" t="s">
+      <c r="H2" s="160" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="161" t="s">
+      <c r="I2" s="160" t="s">
         <v>215</v>
       </c>
-      <c r="J2" s="162" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K2" s="162" t="s">
+      <c r="J2" s="161" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K2" s="161" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L2" s="161" t="s">
         <v>1017</v>
-      </c>
-      <c r="L2" s="162" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31811,7 +31818,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
@@ -31829,7 +31836,7 @@
       </c>
       <c r="K3" s="70"/>
       <c r="L3" s="70" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -31876,7 +31883,7 @@
       </c>
       <c r="K4" s="70"/>
       <c r="L4" s="70" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -31905,7 +31912,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
@@ -31923,7 +31930,7 @@
       </c>
       <c r="K5" s="70"/>
       <c r="L5" s="70" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -31968,7 +31975,7 @@
       </c>
       <c r="K6" s="70"/>
       <c r="L6" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -32015,7 +32022,7 @@
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -32055,12 +32062,12 @@
       <c r="I8" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="J8" s="163">
+      <c r="J8" s="162">
         <v>500000</v>
       </c>
       <c r="K8" s="70"/>
       <c r="L8" s="70" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -32100,12 +32107,12 @@
       <c r="I9" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="J9" s="163">
+      <c r="J9" s="162">
         <v>200000</v>
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="70" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -32152,7 +32159,7 @@
       </c>
       <c r="K10" s="70"/>
       <c r="L10" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="7" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
@@ -32185,7 +32192,7 @@
       </c>
       <c r="K11" s="70"/>
       <c r="L11" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -32232,7 +32239,7 @@
       </c>
       <c r="K12" s="70"/>
       <c r="L12" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -32277,7 +32284,7 @@
       </c>
       <c r="K13" s="70"/>
       <c r="L13" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -32324,7 +32331,7 @@
       </c>
       <c r="K14" s="70"/>
       <c r="L14" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -32369,7 +32376,7 @@
       </c>
       <c r="K15" s="70"/>
       <c r="L15" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -32414,7 +32421,7 @@
       </c>
       <c r="K16" s="70"/>
       <c r="L16" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -32491,7 +32498,7 @@
       <c r="G18" s="50"/>
       <c r="H18" s="49"/>
       <c r="I18" s="50"/>
-      <c r="J18" s="164"/>
+      <c r="J18" s="163"/>
       <c r="K18" s="50"/>
       <c r="L18" s="50"/>
       <c r="M18" s="51"/>
@@ -33527,7 +33534,7 @@
       <c r="G19" s="50"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="164"/>
+      <c r="J19" s="163"/>
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
@@ -34574,7 +34581,7 @@
       </c>
       <c r="K20" s="70"/>
       <c r="L20" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="21" spans="1:1025" s="77" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -34602,12 +34609,12 @@
       <c r="I21" s="59" t="s">
         <v>603</v>
       </c>
-      <c r="J21" s="165" t="s">
+      <c r="J21" s="164" t="s">
         <v>967</v>
       </c>
       <c r="K21" s="60"/>
       <c r="L21" s="60" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
@@ -35644,7 +35651,7 @@
       <c r="G22" s="53"/>
       <c r="H22" s="50"/>
       <c r="I22" s="50"/>
-      <c r="J22" s="164"/>
+      <c r="J22" s="163"/>
       <c r="K22" s="50"/>
       <c r="L22" s="50"/>
       <c r="M22" s="51"/>
@@ -36691,7 +36698,7 @@
       </c>
       <c r="K23" s="70"/>
       <c r="L23" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="24" spans="1:1025" ht="92.4" x14ac:dyDescent="0.3">
@@ -36722,7 +36729,7 @@
       </c>
       <c r="K24" s="70"/>
       <c r="L24" s="70" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="25" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
@@ -36753,7 +36760,7 @@
       </c>
       <c r="K25" s="70"/>
       <c r="L25" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="26" spans="1:1025" ht="105.6" x14ac:dyDescent="0.3">
@@ -36784,7 +36791,7 @@
       </c>
       <c r="K26" s="70"/>
       <c r="L26" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="27" spans="1:1025" ht="52.8" x14ac:dyDescent="0.3">
@@ -36815,7 +36822,7 @@
       </c>
       <c r="K27" s="70"/>
       <c r="L27" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="28" spans="1:1025" ht="79.2" x14ac:dyDescent="0.3">
@@ -36846,7 +36853,7 @@
       </c>
       <c r="K28" s="70"/>
       <c r="L28" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="29" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
@@ -36877,7 +36884,7 @@
       </c>
       <c r="K29" s="70"/>
       <c r="L29" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="30" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
@@ -36908,7 +36915,7 @@
       </c>
       <c r="K30" s="70"/>
       <c r="L30" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="31" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
@@ -36939,7 +36946,7 @@
       </c>
       <c r="K31" s="70"/>
       <c r="L31" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="32" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
@@ -36970,7 +36977,7 @@
       </c>
       <c r="K32" s="70"/>
       <c r="L32" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="33" spans="1:1025" ht="39.6" x14ac:dyDescent="0.3">
@@ -37001,7 +37008,7 @@
       </c>
       <c r="K33" s="70"/>
       <c r="L33" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="34" spans="1:1025" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -37021,7 +37028,7 @@
       <c r="G34" s="50"/>
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
-      <c r="J34" s="164"/>
+      <c r="J34" s="163"/>
       <c r="K34" s="50"/>
       <c r="L34" s="50"/>
       <c r="M34" s="51"/>
@@ -38066,7 +38073,7 @@
       </c>
       <c r="K35" s="70"/>
       <c r="L35" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="36" spans="1:1025" ht="184.8" x14ac:dyDescent="0.3">
@@ -38097,7 +38104,7 @@
       </c>
       <c r="K36" s="70"/>
       <c r="L36" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="37" spans="1:1025" ht="118.8" x14ac:dyDescent="0.3">
@@ -38128,7 +38135,7 @@
       </c>
       <c r="K37" s="70"/>
       <c r="L37" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="38" spans="1:1025" s="79" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
@@ -38154,9 +38161,9 @@
       <c r="I38" s="84" t="s">
         <v>442</v>
       </c>
-      <c r="J38" s="166"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="166"/>
+      <c r="L38" s="166"/>
       <c r="M38" s="78"/>
       <c r="N38" s="78"/>
       <c r="O38" s="78"/>
@@ -39197,7 +39204,7 @@
       </c>
       <c r="K39" s="70"/>
       <c r="L39" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="40" spans="1:1025" ht="118.8" x14ac:dyDescent="0.3">
@@ -39228,7 +39235,7 @@
       </c>
       <c r="K40" s="70"/>
       <c r="L40" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="41" spans="1:1025" ht="409.6" x14ac:dyDescent="0.3">
@@ -39285,7 +39292,7 @@
       </c>
       <c r="K42" s="70"/>
       <c r="L42" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="43" spans="1:1025" ht="132" x14ac:dyDescent="0.3">
@@ -39315,7 +39322,7 @@
       </c>
       <c r="K43" s="70"/>
       <c r="L43" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="44" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
@@ -39345,7 +39352,7 @@
       </c>
       <c r="K44" s="70"/>
       <c r="L44" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="45" spans="1:1025" ht="66" x14ac:dyDescent="0.3">
@@ -39375,7 +39382,7 @@
       </c>
       <c r="K45" s="70"/>
       <c r="L45" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="46" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
@@ -39405,7 +39412,7 @@
       </c>
       <c r="K46" s="70"/>
       <c r="L46" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="47" spans="1:1025" ht="118.8" x14ac:dyDescent="0.3">
@@ -39435,7 +39442,7 @@
       </c>
       <c r="K47" s="70"/>
       <c r="L47" s="70" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="48" spans="1:1025" ht="26.4" x14ac:dyDescent="0.3">
@@ -39465,7 +39472,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
@@ -39495,7 +39502,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
@@ -39525,7 +39532,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
@@ -39555,7 +39562,7 @@
       </c>
       <c r="K51" s="70"/>
       <c r="L51" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="118.8" x14ac:dyDescent="0.3">
@@ -39585,7 +39592,7 @@
       </c>
       <c r="K52" s="70"/>
       <c r="L52" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
@@ -39617,7 +39624,7 @@
       </c>
       <c r="K53" s="70"/>
       <c r="L53" s="70" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
@@ -39647,7 +39654,7 @@
       </c>
       <c r="K54" s="70"/>
       <c r="L54" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39677,7 +39684,7 @@
       </c>
       <c r="K55" s="70"/>
       <c r="L55" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
@@ -39707,7 +39714,7 @@
       </c>
       <c r="K56" s="70"/>
       <c r="L56" s="70" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
@@ -39737,7 +39744,7 @@
       <c r="J57" s="29"/>
       <c r="K57" s="70"/>
       <c r="L57" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
@@ -39769,7 +39776,7 @@
       </c>
       <c r="K58" s="70"/>
       <c r="L58" s="70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -39810,82 +39817,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="199" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="202"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="201"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="173" t="s">
+      <c r="F2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="174" t="s">
+      <c r="G2" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="174" t="s">
+      <c r="H2" s="173" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="174" t="s">
+      <c r="I2" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="J2" s="175" t="s">
+      <c r="J2" s="174" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K2" s="174" t="s">
         <v>1031</v>
       </c>
-      <c r="K2" s="175" t="s">
+      <c r="L2" s="174" t="s">
         <v>1032</v>
-      </c>
-      <c r="L2" s="175" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="176">
+      <c r="A3" s="175">
         <v>1</v>
       </c>
-      <c r="B3" s="177" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C3" s="178" t="s">
+      <c r="B3" s="176" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C3" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="180" t="s">
+      <c r="D3" s="178"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="179" t="s">
         <v>307</v>
       </c>
-      <c r="I3" s="180" t="s">
-        <v>1038</v>
-      </c>
-      <c r="J3" s="181"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="183"/>
+      <c r="I3" s="179" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="182"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -39902,11 +39909,11 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="191">
+      <c r="A4" s="190">
         <v>2</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C4" s="70" t="s">
         <v>9</v>
@@ -39917,37 +39924,37 @@
       <c r="G4" s="32"/>
       <c r="H4" s="40"/>
       <c r="I4" s="40" t="s">
-        <v>1037</v>
-      </c>
-      <c r="J4" s="171"/>
+        <v>1036</v>
+      </c>
+      <c r="J4" s="170"/>
       <c r="K4" s="61"/>
-      <c r="L4" s="192"/>
+      <c r="L4" s="191"/>
     </row>
     <row r="5" spans="1:26" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="193">
+      <c r="A5" s="192">
         <v>3</v>
       </c>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="193" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C5" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="184">
+        <v>2</v>
+      </c>
+      <c r="E5" s="183" t="s">
         <v>1035</v>
       </c>
-      <c r="C5" s="184" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="185">
-        <v>2</v>
-      </c>
-      <c r="E5" s="184" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J5" s="188"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="190"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J5" s="187"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="1">
